--- a/test.xlsx
+++ b/test.xlsx
@@ -26,6 +26,9 @@
     <t>老H5链接</t>
   </si>
   <si>
+    <t>下载地址</t>
+  </si>
+  <si>
     <t>新H5链接</t>
   </si>
   <si>
@@ -93,9 +96,6 @@
   </si>
   <si>
     <t>产品（改LOGO）</t>
-  </si>
-  <si>
-    <t>下载地址</t>
   </si>
   <si>
     <t>屠龙狂战</t>
@@ -310,12 +310,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,13 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
@@ -398,12 +391,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="9"/>
       <color rgb="FF800080"/>
@@ -431,16 +418,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,24 +462,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,10 +477,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,40 +517,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,22 +548,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -580,7 +559,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +604,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -637,24 +622,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -673,6 +676,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -685,7 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,109 +748,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,16 +854,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,16 +893,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,21 +940,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -983,10 +956,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -995,134 +968,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,17 +1104,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,102 +1126,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="10" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1597,7 +1570,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1626,35 +1599,37 @@
       <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="46"/>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="42"/>
       <c r="B4" s="46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="46">
         <v>123</v>
@@ -1663,11 +1638,11 @@
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="42"/>
       <c r="B5" s="46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="46">
         <v>456</v>
@@ -1676,11 +1651,11 @@
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="42"/>
       <c r="B6" s="46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="46">
         <v>789</v>
@@ -1689,40 +1664,40 @@
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="42"/>
       <c r="B7" s="46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="42"/>
       <c r="B8" s="47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
       <c r="A9" s="42"/>
       <c r="B9" s="46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +1739,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1773,7 +1748,7 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1782,16 +1757,16 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="15" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -1851,7 +1826,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:5">
@@ -1873,7 +1848,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
@@ -1932,7 +1907,7 @@
         <v>48</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -1954,7 +1929,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
@@ -2011,7 +1986,7 @@
         <v>57</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:5">
@@ -2033,7 +2008,7 @@
         <v>59</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:5">
@@ -2090,7 +2065,7 @@
         <v>64</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
@@ -2112,7 +2087,7 @@
         <v>66</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:5">
@@ -2160,7 +2135,7 @@
         <v>72</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:5">
@@ -2248,7 +2223,7 @@
         <v>83</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:5">
@@ -2336,7 +2311,7 @@
         <v>91</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="1:5">

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="换下载地址" sheetId="4" r:id="rId1"/>
@@ -310,12 +310,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +392,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="9"/>
       <color rgb="FF800080"/>
       <name val="微软雅黑"/>
@@ -420,6 +428,30 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,6 +472,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -447,6 +494,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -454,11 +517,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,57 +555,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -529,35 +566,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="38">
     <fill>
@@ -604,60 +612,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -694,12 +726,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -724,6 +750,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -743,42 +787,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,21 +861,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -887,7 +880,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,30 +941,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -950,16 +949,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,138 +976,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1177,9 +1185,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,6 +1219,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1217,10 +1240,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="10" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
@@ -1569,134 +1592,134 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="71.875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="41.25" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="11.625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="71.875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="44" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="44" customWidth="1"/>
+    <col min="5" max="5" width="41.25" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" s="38" customFormat="1" spans="1:5">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" s="43" customFormat="1" spans="1:5">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="42"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="51">
         <v>123</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="51"/>
+      <c r="D5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="51">
         <v>456</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
-      <c r="A6" s="42"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="51">
         <v>789</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:5">
-      <c r="A7" s="42"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="45" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:5">
-      <c r="A8" s="42"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
-      <c r="A9" s="42"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="51" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1722,8 +1745,8 @@
   <sheetPr/>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1869,7 +1892,7 @@
     <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="24"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="15" t="s">
         <v>45</v>
       </c>
@@ -1880,7 +1903,7 @@
     <row r="13" ht="14.25" spans="1:5">
       <c r="A13" s="24"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="15" t="s">
         <v>46</v>
       </c>
@@ -1891,7 +1914,7 @@
     <row r="14" ht="14.25" spans="1:5">
       <c r="A14" s="24"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="15" t="s">
         <v>47</v>
       </c>
@@ -1902,7 +1925,7 @@
     <row r="15" ht="14.25" spans="1:5">
       <c r="A15" s="24"/>
       <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="15" t="s">
         <v>48</v>
       </c>
@@ -1913,7 +1936,7 @@
     <row r="16" ht="14.25" spans="1:5">
       <c r="A16" s="24"/>
       <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="15" t="s">
         <v>49</v>
       </c>
@@ -1924,7 +1947,7 @@
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" s="24"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15" t="s">
         <v>50</v>
       </c>
@@ -1936,7 +1959,9 @@
       <c r="A18" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" s="26" t="s">
         <v>52</v>
       </c>
@@ -1948,7 +1973,7 @@
     <row r="19" ht="16.5" spans="1:5">
       <c r="A19" s="24"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="15" t="s">
         <v>54</v>
       </c>
@@ -1959,7 +1984,7 @@
     <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="24"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="15" t="s">
         <v>55</v>
       </c>
@@ -1970,7 +1995,7 @@
     <row r="21" ht="14.25" spans="1:5">
       <c r="A21" s="24"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="15" t="s">
         <v>56</v>
       </c>
@@ -1981,7 +2006,7 @@
     <row r="22" ht="14.25" spans="1:5">
       <c r="A22" s="24"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="15" t="s">
         <v>57</v>
       </c>
@@ -1992,7 +2017,7 @@
     <row r="23" ht="14.25" spans="1:5">
       <c r="A23" s="24"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="15" t="s">
         <v>58</v>
       </c>
@@ -2003,7 +2028,7 @@
     <row r="24" ht="14.25" spans="1:5">
       <c r="A24" s="24"/>
       <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="15" t="s">
         <v>59</v>
       </c>
@@ -2015,7 +2040,9 @@
       <c r="A25" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="31" t="s">
+        <v>42</v>
+      </c>
       <c r="C25" s="26" t="s">
         <v>29</v>
       </c>
@@ -2027,7 +2054,7 @@
     <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="24"/>
       <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="15" t="s">
         <v>61</v>
       </c>
@@ -2038,7 +2065,7 @@
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" s="24"/>
       <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="15" t="s">
         <v>62</v>
       </c>
@@ -2049,7 +2076,7 @@
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" s="24"/>
       <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="15" t="s">
         <v>63</v>
       </c>
@@ -2060,7 +2087,7 @@
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" s="24"/>
       <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="15" t="s">
         <v>64</v>
       </c>
@@ -2071,7 +2098,7 @@
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" s="24"/>
       <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="15" t="s">
         <v>65</v>
       </c>
@@ -2081,8 +2108,8 @@
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" s="24"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="15" t="s">
         <v>66</v>
       </c>
@@ -2091,10 +2118,10 @@
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:5">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="26" t="s">
@@ -2103,12 +2130,12 @@
       <c r="D32" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="32"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" ht="16.5" spans="1:5">
-      <c r="A33" s="30"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="15" t="s">
         <v>69</v>
       </c>
@@ -2117,86 +2144,88 @@
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:5">
-      <c r="A34" s="30"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="37" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:5">
-      <c r="A35" s="30"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:5">
-      <c r="A36" s="30"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:5">
-      <c r="A37" s="30"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:5">
-      <c r="A38" s="30"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:5">
-      <c r="A39" s="30"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="36"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="37"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" ht="16.5" spans="1:5">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="26" t="s">
+      <c r="B40" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="42" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="32"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" ht="16.5" spans="1:5">
-      <c r="A41" s="30"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="15" t="s">
         <v>81</v>
       </c>
@@ -2205,86 +2234,88 @@
       </c>
     </row>
     <row r="42" ht="16.5" spans="1:5">
-      <c r="A42" s="30"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="37" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="1:5">
-      <c r="A43" s="30"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:5">
-      <c r="A44" s="30"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:5">
-      <c r="A45" s="30"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="1:5">
-      <c r="A46" s="30"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="1:5">
-      <c r="A47" s="30"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="36"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="37"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" ht="16.5" spans="1:5">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="33"/>
+      <c r="B48" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="C48" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="32"/>
+      <c r="E48" s="35"/>
     </row>
     <row r="49" ht="16.5" spans="1:5">
-      <c r="A49" s="30"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="15" t="s">
         <v>89</v>
       </c>
@@ -2293,71 +2324,71 @@
       </c>
     </row>
     <row r="50" ht="16.5" spans="1:5">
-      <c r="A50" s="30"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="37" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="1:5">
-      <c r="A51" s="30"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="1:5">
-      <c r="A52" s="30"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="1:5">
-      <c r="A53" s="30"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="1:5">
-      <c r="A54" s="30"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="1:5">
-      <c r="A55" s="30"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
       <c r="D55" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="37"/>
+      <c r="E55" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A4:A10"/>
@@ -2368,8 +2399,12 @@
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="A48:A55"/>
     <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B31"/>
-    <mergeCell ref="B32:B55"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B48:B55"/>
     <mergeCell ref="C4:C10"/>
     <mergeCell ref="C11:C17"/>
     <mergeCell ref="C18:C24"/>
@@ -2379,14 +2414,14 @@
     <mergeCell ref="C48:C55"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="http://download.shengli.com/www/wzcqi/hk001.html"/>
-    <hyperlink ref="B32" r:id="rId2" display="http://download.shengli.com/www/ltwz/wzcqiwm.html"/>
+    <hyperlink ref="B11" r:id="rId1" display="http://download.shengli.com/www/wzcqi/hk001.html" tooltip="http://download.shengli.com/www/wzcqi/hk001.html"/>
+    <hyperlink ref="B32" r:id="rId2" display="http://download.shengli.com/www/ltwz/wzcqiwm.html" tooltip="http://download.shengli.com/www/ltwz/wzcqiwm.html"/>
     <hyperlink ref="C4" r:id="rId3" display="https://itunes.apple.com/cn/app/id1173809967"/>
     <hyperlink ref="C11" r:id="rId4" display="https://itunes.apple.com/cn/app/id1152212994"/>
     <hyperlink ref="C18" r:id="rId5" display="https://itunes.apple.com/cn/app/id1173812512"/>
     <hyperlink ref="C25" r:id="rId3" display="https://itunes.apple.com/cn/app/id1173809967"/>
     <hyperlink ref="C48" r:id="rId3" display="https://itunes.apple.com/cn/app/id1173809967"/>
-    <hyperlink ref="C40" r:id="rId5" display="https://itunes.apple.com/cn/app/id1173812512"/>
+    <hyperlink ref="C40" r:id="rId5" display="https://itunes.apple.com/cn/app/id1173812512" tooltip="https://itunes.apple.com/cn/app/id1173812512"/>
     <hyperlink ref="C32" r:id="rId4" display="https://itunes.apple.com/cn/app/id1152212994"/>
     <hyperlink ref="D11" r:id="rId6" display="https://download.shengli.com/www/tlxihk01/zskn22.html"/>
     <hyperlink ref="D12:D17" r:id="rId6" display="https://download.shengli.com/www/tlxihk01/zskn23.html"/>
@@ -2403,6 +2438,10 @@
     <hyperlink ref="D48" r:id="rId12" display="https://download.shengli.com/www/tlxihk01/tlkz29.html"/>
     <hyperlink ref="D49:D55" r:id="rId12" display="https://download.shengli.com/www/tlxihk01/tlkz30.html"/>
     <hyperlink ref="B4" r:id="rId13" display="http://download.shengli.com/www/wzcqi/hk008.html"/>
+    <hyperlink ref="B18" r:id="rId1" display="http://download.shengli.com/www/wzcqi/hk001.html"/>
+    <hyperlink ref="B25" r:id="rId1" display="http://download.shengli.com/www/wzcqi/hk001.html"/>
+    <hyperlink ref="B40" r:id="rId2" display="http://download.shengli.com/www/ltwz/wzcqiwm.html"/>
+    <hyperlink ref="B48" r:id="rId2" display="http://download.shengli.com/www/ltwz/wzcqiwm.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
